--- a/wwwroot/reports/providedservicesall/providedservices.xlsx
+++ b/wwwroot/reports/providedservicesall/providedservices.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Список оказанных услуг</t>
   </si>
@@ -111,10 +111,16 @@
     <t>07.05.2024 22:13:00</t>
   </si>
   <si>
+    <t>02.02.2020 2:02:00</t>
+  </si>
+  <si>
+    <t>27.05.2024 15:50:00</t>
+  </si>
+  <si>
     <t>Выручка:</t>
   </si>
   <si>
-    <t>47000</t>
+    <t>79000</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECAD1B9-E0F2-472E-8951-087C7189E30F}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -606,11 +612,57 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="0" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/wwwroot/reports/providedservicesall/providedservices.xlsx
+++ b/wwwroot/reports/providedservicesall/providedservices.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Список оказанных услуг</t>
   </si>
@@ -117,10 +117,34 @@
     <t>27.05.2024 15:50:00</t>
   </si>
   <si>
+    <t>Ремонт лобового стекла</t>
+  </si>
+  <si>
+    <t>Карамазин Михаил Александрович</t>
+  </si>
+  <si>
+    <t>Lada Granta A232AA33rus</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>11.01.2024 1:32:00</t>
+  </si>
+  <si>
+    <t>Удаление вмятин без покраски</t>
+  </si>
+  <si>
+    <t>16.05.2024 1:32:00</t>
+  </si>
+  <si>
+    <t>16.05.2024 1:33:00</t>
+  </si>
+  <si>
     <t>Выручка:</t>
   </si>
   <si>
-    <t>79000</t>
+    <t>101000</t>
   </si>
 </sst>
 </file>
@@ -474,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECAD1B9-E0F2-472E-8951-087C7189E30F}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -658,11 +682,80 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="0">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>31</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/wwwroot/reports/providedservicesall/providedservices.xlsx
+++ b/wwwroot/reports/providedservicesall/providedservices.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Список оказанных услуг</t>
   </si>
@@ -141,10 +141,40 @@
     <t>16.05.2024 1:33:00</t>
   </si>
   <si>
+    <t>BMW M8 K333KK33rus</t>
+  </si>
+  <si>
+    <t>02.05.2024 2:19:00</t>
+  </si>
+  <si>
     <t>Выручка:</t>
   </si>
   <si>
-    <t>101000</t>
+    <t>111000</t>
+  </si>
+  <si>
+    <t>Запрашиваемость услуг:</t>
+  </si>
+  <si>
+    <t>Количество заказов</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -498,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECAD1B9-E0F2-472E-8951-087C7189E30F}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -751,11 +781,113 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="0">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="E12" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="F12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/wwwroot/reports/providedservicesall/providedservices.xlsx
+++ b/wwwroot/reports/providedservicesall/providedservices.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Список оказанных услуг</t>
   </si>
@@ -141,16 +141,10 @@
     <t>16.05.2024 1:33:00</t>
   </si>
   <si>
-    <t>BMW M8 K333KK33rus</t>
-  </si>
-  <si>
-    <t>02.05.2024 2:19:00</t>
-  </si>
-  <si>
     <t>Выручка:</t>
   </si>
   <si>
-    <t>111000</t>
+    <t>101000</t>
   </si>
   <si>
     <t>Запрашиваемость услуг:</t>
@@ -528,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECAD1B9-E0F2-472E-8951-087C7189E30F}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -781,44 +775,32 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="A12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="0" t="s">
+    </row>
+    <row r="15">
+      <c r="B15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16">
       <c r="B16" s="0" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>43</v>
@@ -832,18 +814,18 @@
         <v>8</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -851,43 +833,32 @@
         <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
